--- a/Örnek 10 - Metin İşlemleri.xlsx
+++ b/Örnek 10 - Metin İşlemleri.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kagan_GUL\Desktop\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamis\Desktop\Excel - MAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D66C27-4638-47DA-A81B-7D687C4A64A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>yusuf</t>
   </si>
@@ -61,12 +73,27 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>yusufkarataş</t>
+  </si>
+  <si>
+    <t>fkar</t>
+  </si>
+  <si>
+    <t>Muhammed Ali Harmancı</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;₺&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -149,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -158,6 +185,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -169,9 +202,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -455,26 +485,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:H10"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="36.375" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="24.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,20 +512,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="13.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="51.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
@@ -513,77 +543,99 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3">
+        <f>LEN(A5)</f>
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f>UPPER(A5)</f>
+        <v>YUSUFKARATAŞ</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>LOWER(A5)</f>
+        <v>yusufkarataş</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>DOLLAR(D5)</f>
+        <v>₺12,00</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="8" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="10">
+        <v>20215070055</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="8" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
